--- a/prix/basin.xlsx
+++ b/prix/basin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C06C9-31D2-4A71-B3D2-E448DC05205B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EC0421-CF81-4E4B-9BFD-A5D76007A492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>path</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>0,10l</t>
+  </si>
+  <si>
+    <t>basin/aquadux.png</t>
+  </si>
+  <si>
+    <t>basin/cire-siccatif.png</t>
+  </si>
+  <si>
+    <t>basin/huile-maintenance.png</t>
+  </si>
+  <si>
+    <t>basin/huile-parquet-color.png</t>
+  </si>
+  <si>
+    <t>basin/intensive-cleaner.png</t>
+  </si>
+  <si>
+    <t>basin/nettoyant-wash-wax.png</t>
+  </si>
+  <si>
+    <t>basin/no-visible-huile.png</t>
+  </si>
+  <si>
+    <t>basin/vitrificateur-2-composants-acryl.png</t>
   </si>
 </sst>
 </file>
@@ -674,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +735,9 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
@@ -729,7 +755,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
@@ -747,7 +775,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
@@ -765,7 +795,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
@@ -783,7 +815,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
@@ -801,7 +835,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
@@ -820,7 +856,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -838,7 +874,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -856,7 +892,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="14">
@@ -871,7 +907,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -888,7 +924,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
@@ -906,7 +944,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
@@ -924,7 +964,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
@@ -942,7 +984,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1058,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1078,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1098,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1118,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1138,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1158,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
@@ -1122,7 +1178,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
@@ -1140,7 +1198,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B26" s="13" t="s">
         <v>33</v>
       </c>
@@ -1158,7 +1218,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
